--- a/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,15 @@
     <t>['16', '49']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['12', '62', '90+5']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -403,9 +412,6 @@
     <t>['49']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -455,6 +461,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['82', '86']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1069,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1147,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1251,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1338,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT3">
         <v>1.29</v>
@@ -1532,7 +1541,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1633,7 +1642,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1723,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1824,7 +1833,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1914,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU6">
         <v>1.4</v>
@@ -2102,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>1.35</v>
@@ -2296,7 +2305,7 @@
         <v>1.43</v>
       </c>
       <c r="AT8">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2678,7 +2687,7 @@
         <v>2.17</v>
       </c>
       <c r="AT10">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2866,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT11">
         <v>1.63</v>
@@ -2970,7 +2979,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3057,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT12">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3161,7 +3170,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3352,7 +3361,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3633,7 +3642,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3734,7 +3743,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3821,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU16">
         <v>1.27</v>
@@ -3925,7 +3934,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4116,7 +4125,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4203,10 +4212,10 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>1.56</v>
@@ -4307,7 +4316,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4394,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT19">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4498,7 +4507,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4588,7 +4597,7 @@
         <v>1.14</v>
       </c>
       <c r="AT20">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4689,7 +4698,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4967,10 +4976,10 @@
         <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5071,7 +5080,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5262,7 +5271,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5352,7 +5361,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU24">
         <v>1.21</v>
@@ -5540,10 +5549,10 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5644,7 +5653,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5731,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT26">
         <v>1.63</v>
@@ -5835,7 +5844,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5925,7 +5934,7 @@
         <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6307,7 +6316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT29">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -6408,7 +6417,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6495,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT30">
         <v>1.63</v>
@@ -6599,7 +6608,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6689,7 +6698,7 @@
         <v>1.14</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU31">
         <v>1.11</v>
@@ -6790,7 +6799,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6877,7 +6886,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT32">
         <v>1.63</v>
@@ -7068,10 +7077,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT33">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7172,7 +7181,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7363,7 +7372,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7453,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU35">
         <v>1.55</v>
@@ -7644,7 +7653,7 @@
         <v>2.17</v>
       </c>
       <c r="AT36">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7745,7 +7754,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7832,10 +7841,10 @@
         <v>2.33</v>
       </c>
       <c r="AS37">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -7936,7 +7945,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8023,10 +8032,10 @@
         <v>1.25</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU38">
         <v>1.3</v>
@@ -8318,7 +8327,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8596,10 +8605,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU41">
         <v>1.55</v>
@@ -9082,7 +9091,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9172,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.51</v>
@@ -9363,7 +9372,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>1.54</v>
@@ -9464,7 +9473,7 @@
         <v>105</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9551,7 +9560,7 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT46">
         <v>1.63</v>
@@ -9745,7 +9754,7 @@
         <v>1.43</v>
       </c>
       <c r="AT47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -9846,7 +9855,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -9933,10 +9942,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10228,7 +10237,7 @@
         <v>109</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10318,7 +10327,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10419,7 +10428,7 @@
         <v>76</v>
       </c>
       <c r="P51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10610,7 +10619,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10801,7 +10810,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -10891,7 +10900,7 @@
         <v>1.14</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>1.2</v>
@@ -10992,7 +11001,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11270,10 +11279,10 @@
         <v>0.83</v>
       </c>
       <c r="AS55">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT55">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11374,7 +11383,7 @@
         <v>76</v>
       </c>
       <c r="P56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11565,7 +11574,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11655,7 +11664,7 @@
         <v>2.17</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -11707,6 +11716,961 @@
       </c>
       <c r="BK57">
         <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5275428</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45119.89583333334</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>9</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>2.45</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
+        <v>3.9</v>
+      </c>
+      <c r="W58">
+        <v>1.42</v>
+      </c>
+      <c r="X58">
+        <v>2.66</v>
+      </c>
+      <c r="Y58">
+        <v>2.94</v>
+      </c>
+      <c r="Z58">
+        <v>1.35</v>
+      </c>
+      <c r="AA58">
+        <v>7.3</v>
+      </c>
+      <c r="AB58">
+        <v>1.06</v>
+      </c>
+      <c r="AC58">
+        <v>1.92</v>
+      </c>
+      <c r="AD58">
+        <v>3.2</v>
+      </c>
+      <c r="AE58">
+        <v>3.6</v>
+      </c>
+      <c r="AF58">
+        <v>1.05</v>
+      </c>
+      <c r="AG58">
+        <v>9.75</v>
+      </c>
+      <c r="AH58">
+        <v>1.31</v>
+      </c>
+      <c r="AI58">
+        <v>3.1</v>
+      </c>
+      <c r="AJ58">
+        <v>2.04</v>
+      </c>
+      <c r="AK58">
+        <v>1.71</v>
+      </c>
+      <c r="AL58">
+        <v>1.83</v>
+      </c>
+      <c r="AM58">
+        <v>1.86</v>
+      </c>
+      <c r="AN58">
+        <v>1.25</v>
+      </c>
+      <c r="AO58">
+        <v>1.29</v>
+      </c>
+      <c r="AP58">
+        <v>1.8</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>0.83</v>
+      </c>
+      <c r="AS58">
+        <v>1.88</v>
+      </c>
+      <c r="AT58">
+        <v>1.14</v>
+      </c>
+      <c r="AU58">
+        <v>1.33</v>
+      </c>
+      <c r="AV58">
+        <v>1.12</v>
+      </c>
+      <c r="AW58">
+        <v>2.45</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>3</v>
+      </c>
+      <c r="BH58">
+        <v>2</v>
+      </c>
+      <c r="BI58">
+        <v>3</v>
+      </c>
+      <c r="BJ58">
+        <v>2</v>
+      </c>
+      <c r="BK58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5275429</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45121.85416666666</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>4</v>
+      </c>
+      <c r="U59">
+        <v>2.1</v>
+      </c>
+      <c r="V59">
+        <v>2.6</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>2.75</v>
+      </c>
+      <c r="Y59">
+        <v>2.75</v>
+      </c>
+      <c r="Z59">
+        <v>1.4</v>
+      </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
+      <c r="AB59">
+        <v>1.08</v>
+      </c>
+      <c r="AC59">
+        <v>3.2</v>
+      </c>
+      <c r="AD59">
+        <v>3.2</v>
+      </c>
+      <c r="AE59">
+        <v>2.03</v>
+      </c>
+      <c r="AF59">
+        <v>1.03</v>
+      </c>
+      <c r="AG59">
+        <v>12</v>
+      </c>
+      <c r="AH59">
+        <v>1.25</v>
+      </c>
+      <c r="AI59">
+        <v>3.55</v>
+      </c>
+      <c r="AJ59">
+        <v>1.79</v>
+      </c>
+      <c r="AK59">
+        <v>1.79</v>
+      </c>
+      <c r="AL59">
+        <v>1.91</v>
+      </c>
+      <c r="AM59">
+        <v>1.8</v>
+      </c>
+      <c r="AN59">
+        <v>1.6</v>
+      </c>
+      <c r="AO59">
+        <v>1.25</v>
+      </c>
+      <c r="AP59">
+        <v>1.25</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>2</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
+      <c r="AT59">
+        <v>1.83</v>
+      </c>
+      <c r="AU59">
+        <v>1.44</v>
+      </c>
+      <c r="AV59">
+        <v>1.47</v>
+      </c>
+      <c r="AW59">
+        <v>2.91</v>
+      </c>
+      <c r="AX59">
+        <v>2.21</v>
+      </c>
+      <c r="AY59">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ59">
+        <v>1.84</v>
+      </c>
+      <c r="BA59">
+        <v>1.37</v>
+      </c>
+      <c r="BB59">
+        <v>1.65</v>
+      </c>
+      <c r="BC59">
+        <v>2.12</v>
+      </c>
+      <c r="BD59">
+        <v>2.85</v>
+      </c>
+      <c r="BE59">
+        <v>4</v>
+      </c>
+      <c r="BF59">
+        <v>2</v>
+      </c>
+      <c r="BG59">
+        <v>5</v>
+      </c>
+      <c r="BH59">
+        <v>9</v>
+      </c>
+      <c r="BI59">
+        <v>7</v>
+      </c>
+      <c r="BJ59">
+        <v>11</v>
+      </c>
+      <c r="BK59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5275430</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>114</v>
+      </c>
+      <c r="P60" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>8</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
+        <v>2.05</v>
+      </c>
+      <c r="V60">
+        <v>3.75</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>2.63</v>
+      </c>
+      <c r="Y60">
+        <v>2.75</v>
+      </c>
+      <c r="Z60">
+        <v>1.4</v>
+      </c>
+      <c r="AA60">
+        <v>7</v>
+      </c>
+      <c r="AB60">
+        <v>1.08</v>
+      </c>
+      <c r="AC60">
+        <v>2.15</v>
+      </c>
+      <c r="AD60">
+        <v>3.1</v>
+      </c>
+      <c r="AE60">
+        <v>3.1</v>
+      </c>
+      <c r="AF60">
+        <v>1.05</v>
+      </c>
+      <c r="AG60">
+        <v>10.75</v>
+      </c>
+      <c r="AH60">
+        <v>1.28</v>
+      </c>
+      <c r="AI60">
+        <v>3.33</v>
+      </c>
+      <c r="AJ60">
+        <v>1.87</v>
+      </c>
+      <c r="AK60">
+        <v>1.83</v>
+      </c>
+      <c r="AL60">
+        <v>1.83</v>
+      </c>
+      <c r="AM60">
+        <v>1.83</v>
+      </c>
+      <c r="AN60">
+        <v>1.32</v>
+      </c>
+      <c r="AO60">
+        <v>1.32</v>
+      </c>
+      <c r="AP60">
+        <v>1.62</v>
+      </c>
+      <c r="AQ60">
+        <v>1.71</v>
+      </c>
+      <c r="AR60">
+        <v>0.75</v>
+      </c>
+      <c r="AS60">
+        <v>1.88</v>
+      </c>
+      <c r="AT60">
+        <v>0.67</v>
+      </c>
+      <c r="AU60">
+        <v>1.19</v>
+      </c>
+      <c r="AV60">
+        <v>1.42</v>
+      </c>
+      <c r="AW60">
+        <v>2.61</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>3</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>5</v>
+      </c>
+      <c r="BI60">
+        <v>7</v>
+      </c>
+      <c r="BJ60">
+        <v>8</v>
+      </c>
+      <c r="BK60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5275431</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45122.83333333334</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q61">
+        <v>9</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>2.6</v>
+      </c>
+      <c r="U61">
+        <v>2.1</v>
+      </c>
+      <c r="V61">
+        <v>4</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>2.63</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>1.36</v>
+      </c>
+      <c r="AA61">
+        <v>7</v>
+      </c>
+      <c r="AB61">
+        <v>1.08</v>
+      </c>
+      <c r="AC61">
+        <v>1.91</v>
+      </c>
+      <c r="AD61">
+        <v>3.25</v>
+      </c>
+      <c r="AE61">
+        <v>3.6</v>
+      </c>
+      <c r="AF61">
+        <v>1.05</v>
+      </c>
+      <c r="AG61">
+        <v>10.75</v>
+      </c>
+      <c r="AH61">
+        <v>1.3</v>
+      </c>
+      <c r="AI61">
+        <v>3.23</v>
+      </c>
+      <c r="AJ61">
+        <v>1.85</v>
+      </c>
+      <c r="AK61">
+        <v>1.85</v>
+      </c>
+      <c r="AL61">
+        <v>1.91</v>
+      </c>
+      <c r="AM61">
+        <v>1.8</v>
+      </c>
+      <c r="AN61">
+        <v>1.28</v>
+      </c>
+      <c r="AO61">
+        <v>1.3</v>
+      </c>
+      <c r="AP61">
+        <v>1.72</v>
+      </c>
+      <c r="AQ61">
+        <v>1.29</v>
+      </c>
+      <c r="AR61">
+        <v>0.71</v>
+      </c>
+      <c r="AS61">
+        <v>1.25</v>
+      </c>
+      <c r="AT61">
+        <v>0.75</v>
+      </c>
+      <c r="AU61">
+        <v>1.71</v>
+      </c>
+      <c r="AV61">
+        <v>1.35</v>
+      </c>
+      <c r="AW61">
+        <v>3.06</v>
+      </c>
+      <c r="AX61">
+        <v>1.69</v>
+      </c>
+      <c r="AY61">
+        <v>6.4</v>
+      </c>
+      <c r="AZ61">
+        <v>2.83</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>1.3</v>
+      </c>
+      <c r="BC61">
+        <v>1.54</v>
+      </c>
+      <c r="BD61">
+        <v>1.98</v>
+      </c>
+      <c r="BE61">
+        <v>2.5</v>
+      </c>
+      <c r="BF61">
+        <v>5</v>
+      </c>
+      <c r="BG61">
+        <v>3</v>
+      </c>
+      <c r="BH61">
+        <v>8</v>
+      </c>
+      <c r="BI61">
+        <v>1</v>
+      </c>
+      <c r="BJ61">
+        <v>13</v>
+      </c>
+      <c r="BK61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5275432</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>116</v>
+      </c>
+      <c r="P62" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>7</v>
+      </c>
+      <c r="T62">
+        <v>1.95</v>
+      </c>
+      <c r="U62">
+        <v>2.29</v>
+      </c>
+      <c r="V62">
+        <v>6</v>
+      </c>
+      <c r="W62">
+        <v>1.34</v>
+      </c>
+      <c r="X62">
+        <v>2.99</v>
+      </c>
+      <c r="Y62">
+        <v>2.62</v>
+      </c>
+      <c r="Z62">
+        <v>1.43</v>
+      </c>
+      <c r="AA62">
+        <v>5.75</v>
+      </c>
+      <c r="AB62">
+        <v>1.1</v>
+      </c>
+      <c r="AC62">
+        <v>1.55</v>
+      </c>
+      <c r="AD62">
+        <v>3.9</v>
+      </c>
+      <c r="AE62">
+        <v>4.2</v>
+      </c>
+      <c r="AF62">
+        <v>1.01</v>
+      </c>
+      <c r="AG62">
+        <v>9.9</v>
+      </c>
+      <c r="AH62">
+        <v>1.23</v>
+      </c>
+      <c r="AI62">
+        <v>3.56</v>
+      </c>
+      <c r="AJ62">
+        <v>1.95</v>
+      </c>
+      <c r="AK62">
+        <v>1.85</v>
+      </c>
+      <c r="AL62">
+        <v>1.94</v>
+      </c>
+      <c r="AM62">
+        <v>1.82</v>
+      </c>
+      <c r="AN62">
+        <v>1.07</v>
+      </c>
+      <c r="AO62">
+        <v>1.17</v>
+      </c>
+      <c r="AP62">
+        <v>2.42</v>
+      </c>
+      <c r="AQ62">
+        <v>1.43</v>
+      </c>
+      <c r="AR62">
+        <v>0.71</v>
+      </c>
+      <c r="AS62">
+        <v>1.63</v>
+      </c>
+      <c r="AT62">
+        <v>0.63</v>
+      </c>
+      <c r="AU62">
+        <v>1.63</v>
+      </c>
+      <c r="AV62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW62">
+        <v>2.57</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>9</v>
+      </c>
+      <c r="BG62">
+        <v>2</v>
+      </c>
+      <c r="BH62">
+        <v>5</v>
+      </c>
+      <c r="BI62">
+        <v>4</v>
+      </c>
+      <c r="BJ62">
+        <v>14</v>
+      </c>
+      <c r="BK62">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['12', '62', '90+5']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -464,6 +470,15 @@
   </si>
   <si>
     <t>['82', '86']</t>
+  </si>
+  <si>
+    <t>['6', '38']</t>
+  </si>
+  <si>
+    <t>['7', '24', '37', '55', '84']</t>
+  </si>
+  <si>
+    <t>['4', '8']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1084,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1260,7 +1275,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1350,7 +1365,7 @@
         <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1538,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>0.63</v>
@@ -1642,7 +1657,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1833,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2302,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2493,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2684,7 +2699,7 @@
         <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT10">
         <v>0.63</v>
@@ -2878,7 +2893,7 @@
         <v>1.63</v>
       </c>
       <c r="AT11">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU11">
         <v>1.06</v>
@@ -2979,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3170,7 +3185,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3257,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3361,7 +3376,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3451,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3639,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -3743,7 +3758,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3934,7 +3949,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4021,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4125,7 +4140,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4316,7 +4331,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4507,7 +4522,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4594,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4698,7 +4713,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4785,10 +4800,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -5080,7 +5095,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5167,10 +5182,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT23">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -5271,7 +5286,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5358,7 +5373,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
         <v>1.83</v>
@@ -5552,7 +5567,7 @@
         <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5743,7 +5758,7 @@
         <v>1.63</v>
       </c>
       <c r="AT26">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5844,7 +5859,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5931,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>0.67</v>
@@ -6125,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>1.71</v>
@@ -6313,7 +6328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>0.75</v>
@@ -6417,7 +6432,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6507,7 +6522,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU30">
         <v>1.76</v>
@@ -6608,7 +6623,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6695,7 +6710,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>1.83</v>
@@ -6799,7 +6814,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6889,7 +6904,7 @@
         <v>1.88</v>
       </c>
       <c r="AT32">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -7181,7 +7196,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7268,10 +7283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7372,7 +7387,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7462,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.55</v>
@@ -7650,7 +7665,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT36">
         <v>0.75</v>
@@ -7754,7 +7769,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7945,7 +7960,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8223,10 +8238,10 @@
         <v>2.5</v>
       </c>
       <c r="AS39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT39">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8327,7 +8342,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8414,10 +8429,10 @@
         <v>0.75</v>
       </c>
       <c r="AS40">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT40">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.5</v>
@@ -8796,10 +8811,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU42">
         <v>1.6</v>
@@ -8987,10 +9002,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU43">
         <v>1.22</v>
@@ -9091,7 +9106,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9369,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>0.75</v>
@@ -9473,7 +9488,7 @@
         <v>105</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9563,7 +9578,7 @@
         <v>1.88</v>
       </c>
       <c r="AT46">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU46">
         <v>1.35</v>
@@ -9751,7 +9766,7 @@
         <v>0.83</v>
       </c>
       <c r="AS47">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
         <v>0.63</v>
@@ -9855,7 +9870,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -9945,7 +9960,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10133,10 +10148,10 @@
         <v>1.67</v>
       </c>
       <c r="AS49">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT49">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10237,7 +10252,7 @@
         <v>109</v>
       </c>
       <c r="P50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10324,10 +10339,10 @@
         <v>0.8</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10428,7 +10443,7 @@
         <v>76</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10515,10 +10530,10 @@
         <v>0.6</v>
       </c>
       <c r="AS51">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -10619,7 +10634,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10706,10 +10721,10 @@
         <v>1.43</v>
       </c>
       <c r="AS52">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -10810,7 +10825,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -10897,7 +10912,7 @@
         <v>0.86</v>
       </c>
       <c r="AS53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT53">
         <v>0.67</v>
@@ -11001,7 +11016,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11088,10 +11103,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.47</v>
@@ -11383,7 +11398,7 @@
         <v>76</v>
       </c>
       <c r="P56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11473,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU56">
         <v>1.48</v>
@@ -11574,7 +11589,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11661,7 +11676,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT57">
         <v>1.83</v>
@@ -11765,7 +11780,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -11855,7 +11870,7 @@
         <v>1.88</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12338,7 +12353,7 @@
         <v>115</v>
       </c>
       <c r="P61" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -12529,7 +12544,7 @@
         <v>116</v>
       </c>
       <c r="P62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12671,6 +12686,770 @@
       </c>
       <c r="BK62">
         <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5275433</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45128.95833333334</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" t="s">
+        <v>66</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q63">
+        <v>10</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
+      <c r="T63">
+        <v>3.2</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>3.4</v>
+      </c>
+      <c r="W63">
+        <v>1.5</v>
+      </c>
+      <c r="X63">
+        <v>2.5</v>
+      </c>
+      <c r="Y63">
+        <v>3.4</v>
+      </c>
+      <c r="Z63">
+        <v>1.3</v>
+      </c>
+      <c r="AA63">
+        <v>8</v>
+      </c>
+      <c r="AB63">
+        <v>1.06</v>
+      </c>
+      <c r="AC63">
+        <v>2.45</v>
+      </c>
+      <c r="AD63">
+        <v>3.1</v>
+      </c>
+      <c r="AE63">
+        <v>2.6</v>
+      </c>
+      <c r="AF63">
+        <v>1.08</v>
+      </c>
+      <c r="AG63">
+        <v>7</v>
+      </c>
+      <c r="AH63">
+        <v>1.36</v>
+      </c>
+      <c r="AI63">
+        <v>3</v>
+      </c>
+      <c r="AJ63">
+        <v>2.08</v>
+      </c>
+      <c r="AK63">
+        <v>1.57</v>
+      </c>
+      <c r="AL63">
+        <v>2.1</v>
+      </c>
+      <c r="AM63">
+        <v>1.67</v>
+      </c>
+      <c r="AN63">
+        <v>1.41</v>
+      </c>
+      <c r="AO63">
+        <v>1.31</v>
+      </c>
+      <c r="AP63">
+        <v>1.46</v>
+      </c>
+      <c r="AQ63">
+        <v>1.67</v>
+      </c>
+      <c r="AR63">
+        <v>1.63</v>
+      </c>
+      <c r="AS63">
+        <v>1.5</v>
+      </c>
+      <c r="AT63">
+        <v>1.78</v>
+      </c>
+      <c r="AU63">
+        <v>1.47</v>
+      </c>
+      <c r="AV63">
+        <v>1.68</v>
+      </c>
+      <c r="AW63">
+        <v>3.15</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>4</v>
+      </c>
+      <c r="BG63">
+        <v>4</v>
+      </c>
+      <c r="BH63">
+        <v>14</v>
+      </c>
+      <c r="BI63">
+        <v>3</v>
+      </c>
+      <c r="BJ63">
+        <v>18</v>
+      </c>
+      <c r="BK63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5275435</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45129.83333333334</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>117</v>
+      </c>
+      <c r="P64" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>7</v>
+      </c>
+      <c r="T64">
+        <v>3.4</v>
+      </c>
+      <c r="U64">
+        <v>2.1</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>1.37</v>
+      </c>
+      <c r="X64">
+        <v>2.6</v>
+      </c>
+      <c r="Y64">
+        <v>2.62</v>
+      </c>
+      <c r="Z64">
+        <v>1.36</v>
+      </c>
+      <c r="AA64">
+        <v>6</v>
+      </c>
+      <c r="AB64">
+        <v>1.1</v>
+      </c>
+      <c r="AC64">
+        <v>3.3</v>
+      </c>
+      <c r="AD64">
+        <v>3.4</v>
+      </c>
+      <c r="AE64">
+        <v>2</v>
+      </c>
+      <c r="AF64">
+        <v>1.04</v>
+      </c>
+      <c r="AG64">
+        <v>13.25</v>
+      </c>
+      <c r="AH64">
+        <v>1.24</v>
+      </c>
+      <c r="AI64">
+        <v>3.67</v>
+      </c>
+      <c r="AJ64">
+        <v>1.85</v>
+      </c>
+      <c r="AK64">
+        <v>1.95</v>
+      </c>
+      <c r="AL64">
+        <v>1.63</v>
+      </c>
+      <c r="AM64">
+        <v>2.22</v>
+      </c>
+      <c r="AN64">
+        <v>1.69</v>
+      </c>
+      <c r="AO64">
+        <v>1.25</v>
+      </c>
+      <c r="AP64">
+        <v>1.29</v>
+      </c>
+      <c r="AQ64">
+        <v>1.14</v>
+      </c>
+      <c r="AR64">
+        <v>1.29</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>1.5</v>
+      </c>
+      <c r="AU64">
+        <v>1.2</v>
+      </c>
+      <c r="AV64">
+        <v>1.32</v>
+      </c>
+      <c r="AW64">
+        <v>2.52</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>3</v>
+      </c>
+      <c r="BG64">
+        <v>10</v>
+      </c>
+      <c r="BH64">
+        <v>1</v>
+      </c>
+      <c r="BI64">
+        <v>2</v>
+      </c>
+      <c r="BJ64">
+        <v>4</v>
+      </c>
+      <c r="BK64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5275434</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45130.70833333334</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>118</v>
+      </c>
+      <c r="P65" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
+        <v>-1</v>
+      </c>
+      <c r="S65">
+        <v>-1</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>1.95</v>
+      </c>
+      <c r="V65">
+        <v>3.4</v>
+      </c>
+      <c r="W65">
+        <v>1.53</v>
+      </c>
+      <c r="X65">
+        <v>2.38</v>
+      </c>
+      <c r="Y65">
+        <v>3.5</v>
+      </c>
+      <c r="Z65">
+        <v>1.29</v>
+      </c>
+      <c r="AA65">
+        <v>8</v>
+      </c>
+      <c r="AB65">
+        <v>1.06</v>
+      </c>
+      <c r="AC65">
+        <v>2.55</v>
+      </c>
+      <c r="AD65">
+        <v>2.9</v>
+      </c>
+      <c r="AE65">
+        <v>2.6</v>
+      </c>
+      <c r="AF65">
+        <v>1.05</v>
+      </c>
+      <c r="AG65">
+        <v>8</v>
+      </c>
+      <c r="AH65">
+        <v>1.3</v>
+      </c>
+      <c r="AI65">
+        <v>3.2</v>
+      </c>
+      <c r="AJ65">
+        <v>2.15</v>
+      </c>
+      <c r="AK65">
+        <v>1.57</v>
+      </c>
+      <c r="AL65">
+        <v>2.1</v>
+      </c>
+      <c r="AM65">
+        <v>1.67</v>
+      </c>
+      <c r="AN65">
+        <v>1.38</v>
+      </c>
+      <c r="AO65">
+        <v>1.28</v>
+      </c>
+      <c r="AP65">
+        <v>1.4</v>
+      </c>
+      <c r="AQ65">
+        <v>2.17</v>
+      </c>
+      <c r="AR65">
+        <v>1.14</v>
+      </c>
+      <c r="AS65">
+        <v>2.29</v>
+      </c>
+      <c r="AT65">
+        <v>1</v>
+      </c>
+      <c r="AU65">
+        <v>1.29</v>
+      </c>
+      <c r="AV65">
+        <v>1.08</v>
+      </c>
+      <c r="AW65">
+        <v>2.37</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>-1</v>
+      </c>
+      <c r="BG65">
+        <v>-1</v>
+      </c>
+      <c r="BH65">
+        <v>-1</v>
+      </c>
+      <c r="BI65">
+        <v>-1</v>
+      </c>
+      <c r="BJ65">
+        <v>-1</v>
+      </c>
+      <c r="BK65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5275436</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45130.83333333334</v>
+      </c>
+      <c r="F66">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>117</v>
+      </c>
+      <c r="P66" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>3.1</v>
+      </c>
+      <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
+        <v>3.6</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>2.5</v>
+      </c>
+      <c r="Y66">
+        <v>3.4</v>
+      </c>
+      <c r="Z66">
+        <v>1.3</v>
+      </c>
+      <c r="AA66">
+        <v>8</v>
+      </c>
+      <c r="AB66">
+        <v>1.06</v>
+      </c>
+      <c r="AC66">
+        <v>2.15</v>
+      </c>
+      <c r="AD66">
+        <v>3.1</v>
+      </c>
+      <c r="AE66">
+        <v>3.1</v>
+      </c>
+      <c r="AF66">
+        <v>1.06</v>
+      </c>
+      <c r="AG66">
+        <v>9.25</v>
+      </c>
+      <c r="AH66">
+        <v>1.36</v>
+      </c>
+      <c r="AI66">
+        <v>2.89</v>
+      </c>
+      <c r="AJ66">
+        <v>1.95</v>
+      </c>
+      <c r="AK66">
+        <v>1.7</v>
+      </c>
+      <c r="AL66">
+        <v>2.1</v>
+      </c>
+      <c r="AM66">
+        <v>1.67</v>
+      </c>
+      <c r="AN66">
+        <v>1.32</v>
+      </c>
+      <c r="AO66">
+        <v>1.32</v>
+      </c>
+      <c r="AP66">
+        <v>1.6</v>
+      </c>
+      <c r="AQ66">
+        <v>1.43</v>
+      </c>
+      <c r="AR66">
+        <v>1.63</v>
+      </c>
+      <c r="AS66">
+        <v>1.25</v>
+      </c>
+      <c r="AT66">
+        <v>1.78</v>
+      </c>
+      <c r="AU66">
+        <v>1.36</v>
+      </c>
+      <c r="AV66">
+        <v>1.3</v>
+      </c>
+      <c r="AW66">
+        <v>2.66</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>5</v>
+      </c>
+      <c r="BG66">
+        <v>6</v>
+      </c>
+      <c r="BH66">
+        <v>8</v>
+      </c>
+      <c r="BI66">
+        <v>1</v>
+      </c>
+      <c r="BJ66">
+        <v>13</v>
+      </c>
+      <c r="BK66">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT4">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT6">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU6">
         <v>1.4</v>
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU7">
         <v>1.35</v>
@@ -2311,16 +2311,16 @@
         <v>1.42</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2890,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT11">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU11">
         <v>1.06</v>
@@ -3075,16 +3075,16 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS12">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>2</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT13">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3457,16 +3457,16 @@
         <v>1.3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT14">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3648,16 +3648,16 @@
         <v>1.62</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3839,16 +3839,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AS16">
+        <v>1.31</v>
+      </c>
+      <c r="AT16">
         <v>1.63</v>
-      </c>
-      <c r="AT16">
-        <v>1.83</v>
       </c>
       <c r="AU16">
         <v>1.27</v>
@@ -4030,16 +4030,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4221,16 +4221,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>1.56</v>
@@ -4418,10 +4418,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4603,16 +4603,16 @@
         <v>1.45</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4794,16 +4794,16 @@
         <v>1.98</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT21">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -4985,16 +4985,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AR22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT22">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5179,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="AR23">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS23">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -5367,16 +5367,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AU24">
         <v>1.21</v>
@@ -5561,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AR25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5749,16 +5749,16 @@
         <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT26">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5940,16 +5940,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6131,16 +6131,16 @@
         <v>1.32</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU28">
         <v>1.71</v>
@@ -6322,16 +6322,16 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -6513,16 +6513,16 @@
         <v>2.15</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR30">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT30">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU30">
         <v>1.76</v>
@@ -6704,16 +6704,16 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT31">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AU31">
         <v>1.11</v>
@@ -6895,16 +6895,16 @@
         <v>1.3</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="AS32">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT32">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -7086,16 +7086,16 @@
         <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AS33">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7277,16 +7277,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7468,16 +7468,16 @@
         <v>1.52</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AR35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU35">
         <v>1.55</v>
@@ -7659,16 +7659,16 @@
         <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS36">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7850,16 +7850,16 @@
         <v>1.55</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AR37">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT37">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8041,16 +8041,16 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AS38">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT38">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU38">
         <v>1.3</v>
@@ -8235,13 +8235,13 @@
         <v>1</v>
       </c>
       <c r="AR39">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AS39">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8423,16 +8423,16 @@
         <v>1.41</v>
       </c>
       <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
         <v>1.33</v>
       </c>
-      <c r="AR40">
-        <v>0.75</v>
-      </c>
       <c r="AS40">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU40">
         <v>1.5</v>
@@ -8614,16 +8614,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AS41">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT41">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU41">
         <v>1.55</v>
@@ -8805,16 +8805,16 @@
         <v>2.15</v>
       </c>
       <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
         <v>1.6</v>
       </c>
-      <c r="AR42">
-        <v>2</v>
-      </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT42">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU42">
         <v>1.6</v>
@@ -8996,16 +8996,16 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AR43">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT43">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU43">
         <v>1.22</v>
@@ -9187,16 +9187,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ44">
+        <v>1.45</v>
+      </c>
+      <c r="AR44">
         <v>1.2</v>
       </c>
-      <c r="AR44">
-        <v>0.83</v>
-      </c>
       <c r="AS44">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT44">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU44">
         <v>1.51</v>
@@ -9378,16 +9378,16 @@
         <v>1.95</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AR45">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.54</v>
@@ -9569,16 +9569,16 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AS46">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT46">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU46">
         <v>1.35</v>
@@ -9760,16 +9760,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -9951,16 +9951,16 @@
         <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10142,16 +10142,16 @@
         <v>0</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AS49">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10333,16 +10333,16 @@
         <v>0</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AR50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10524,16 +10524,16 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
-        <v>0.6</v>
+        <v>1.36</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT52">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -10906,16 +10906,16 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR53">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU53">
         <v>1.2</v>
@@ -11097,16 +11097,16 @@
         <v>2.05</v>
       </c>
       <c r="AQ54">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AR54">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU54">
         <v>1.47</v>
@@ -11288,16 +11288,16 @@
         <v>1.6</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>0.83</v>
+        <v>1.15</v>
       </c>
       <c r="AS55">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11479,16 +11479,16 @@
         <v>1.23</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT56">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU56">
         <v>1.48</v>
@@ -11670,16 +11670,16 @@
         <v>1.37</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="AR57">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AS57">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -11861,16 +11861,16 @@
         <v>1.8</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AR58">
-        <v>0.83</v>
+        <v>1.15</v>
       </c>
       <c r="AS58">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12052,16 +12052,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AU59">
         <v>1.44</v>
@@ -12243,16 +12243,16 @@
         <v>1.62</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AS60">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU60">
         <v>1.19</v>
@@ -12434,16 +12434,16 @@
         <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AR61">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.71</v>
@@ -12625,16 +12625,16 @@
         <v>2.42</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT62">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU62">
         <v>1.63</v>
@@ -12816,16 +12816,16 @@
         <v>1.46</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AR63">
+        <v>1.44</v>
+      </c>
+      <c r="AS63">
         <v>1.63</v>
       </c>
-      <c r="AS63">
-        <v>1.5</v>
-      </c>
       <c r="AT63">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="AU63">
         <v>1.47</v>
@@ -13007,16 +13007,16 @@
         <v>1.29</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AR64">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AU64">
         <v>1.2</v>
@@ -13120,13 +13120,13 @@
         <v>76</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T65">
         <v>3.25</v>
@@ -13198,16 +13198,16 @@
         <v>1.4</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR65">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AS65">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU65">
         <v>1.29</v>
@@ -13243,22 +13243,22 @@
         <v>0</v>
       </c>
       <c r="BF65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH65">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ65">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK65">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:63">
@@ -13389,16 +13389,16 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AR66">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AU66">
         <v>1.36</v>

--- a/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Canada Canadian Premier League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['71', '73']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -479,6 +485,12 @@
   </si>
   <si>
     <t>['4', '8']</t>
+  </si>
+  <si>
+    <t>['5', '83', '85']</t>
+  </si>
+  <si>
+    <t>['45', '61']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK66"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1096,7 @@
         <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1171,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT2">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1275,7 +1287,7 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1362,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT3">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1553,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1657,7 +1669,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1744,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1848,7 +1860,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1935,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT6">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU6">
         <v>1.4</v>
@@ -2126,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT7">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU7">
         <v>1.35</v>
@@ -2311,16 +2323,16 @@
         <v>1.42</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT8">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2508,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2693,16 +2705,16 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT10">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2890,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT11">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU11">
         <v>1.06</v>
@@ -2994,7 +3006,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3075,16 +3087,16 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3185,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3269,13 +3281,13 @@
         <v>2</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3376,7 +3388,7 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3457,16 +3469,16 @@
         <v>1.3</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT14">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU14">
         <v>1.73</v>
@@ -3648,16 +3660,16 @@
         <v>1.62</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU15">
         <v>1.31</v>
@@ -3758,7 +3770,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3839,16 +3851,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT16">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>1.27</v>
@@ -3949,7 +3961,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4030,16 +4042,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
         <v>1.33</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AT17">
-        <v>1.69</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4140,7 +4152,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4221,16 +4233,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS18">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>1.56</v>
@@ -4331,7 +4343,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4418,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4522,7 +4534,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4603,16 +4615,16 @@
         <v>1.45</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>1.32</v>
@@ -4713,7 +4725,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4794,16 +4806,16 @@
         <v>1.98</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -4985,16 +4997,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ22">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT22">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5095,7 +5107,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5179,13 +5191,13 @@
         <v>1</v>
       </c>
       <c r="AR23">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT23">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -5286,7 +5298,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5367,16 +5379,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT24">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>1.21</v>
@@ -5561,13 +5573,13 @@
         <v>1</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.55</v>
@@ -5749,16 +5761,16 @@
         <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5859,7 +5871,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5940,16 +5952,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ27">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6131,16 +6143,16 @@
         <v>1.32</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>0.89</v>
+      </c>
+      <c r="AT28">
         <v>1.33</v>
-      </c>
-      <c r="AS28">
-        <v>1.41</v>
-      </c>
-      <c r="AT28">
-        <v>1.69</v>
       </c>
       <c r="AU28">
         <v>1.71</v>
@@ -6322,16 +6334,16 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -6432,7 +6444,7 @@
         <v>91</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6513,16 +6525,16 @@
         <v>2.15</v>
       </c>
       <c r="AQ30">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT30">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU30">
         <v>1.76</v>
@@ -6623,7 +6635,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6704,16 +6716,16 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AS31">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>1.11</v>
@@ -6814,7 +6826,7 @@
         <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6895,16 +6907,16 @@
         <v>1.3</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
         <v>1.88</v>
       </c>
-      <c r="AS32">
-        <v>1.69</v>
-      </c>
       <c r="AT32">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU32">
         <v>1.46</v>
@@ -7086,16 +7098,16 @@
         <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AR33">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT33">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7196,7 +7208,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7277,16 +7289,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR34">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT34">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7387,7 +7399,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7468,16 +7480,16 @@
         <v>1.52</v>
       </c>
       <c r="AQ35">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT35">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.55</v>
@@ -7659,16 +7671,16 @@
         <v>1.43</v>
       </c>
       <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>1.25</v>
+      </c>
+      <c r="AS36">
+        <v>2.29</v>
+      </c>
+      <c r="AT36">
         <v>0.75</v>
-      </c>
-      <c r="AR36">
-        <v>1.13</v>
-      </c>
-      <c r="AS36">
-        <v>1.38</v>
-      </c>
-      <c r="AT36">
-        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -7769,7 +7781,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7850,16 +7862,16 @@
         <v>1.55</v>
       </c>
       <c r="AQ37">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="AS37">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -7960,7 +7972,7 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8041,16 +8053,16 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AS38">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT38">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU38">
         <v>1.3</v>
@@ -8235,13 +8247,13 @@
         <v>1</v>
       </c>
       <c r="AR39">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT39">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8342,7 +8354,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8423,16 +8435,16 @@
         <v>1.41</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
+        <v>0.75</v>
+      </c>
+      <c r="AS40">
+        <v>2.29</v>
+      </c>
+      <c r="AT40">
         <v>1.33</v>
-      </c>
-      <c r="AS40">
-        <v>1.38</v>
-      </c>
-      <c r="AT40">
-        <v>1.69</v>
       </c>
       <c r="AU40">
         <v>1.5</v>
@@ -8614,16 +8626,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ41">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT41">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU41">
         <v>1.55</v>
@@ -8805,16 +8817,16 @@
         <v>2.15</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU42">
         <v>1.6</v>
@@ -8996,16 +9008,16 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU43">
         <v>1.22</v>
@@ -9106,7 +9118,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9187,16 +9199,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ44">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AR44">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AS44">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT44">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>1.51</v>
@@ -9378,16 +9390,16 @@
         <v>1.95</v>
       </c>
       <c r="AQ45">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>1.54</v>
@@ -9488,7 +9500,7 @@
         <v>105</v>
       </c>
       <c r="P46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9569,16 +9581,16 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AR46">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT46">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU46">
         <v>1.35</v>
@@ -9760,16 +9772,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT47">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -9870,7 +9882,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -9951,16 +9963,16 @@
         <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT48">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10142,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AS49">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT49">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10252,7 +10264,7 @@
         <v>109</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10333,16 +10345,16 @@
         <v>0</v>
       </c>
       <c r="AQ50">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS50">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10443,7 +10455,7 @@
         <v>76</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10524,16 +10536,16 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
-        <v>1.36</v>
+        <v>0.6</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -10634,7 +10646,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10715,16 +10727,16 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AS52">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -10825,7 +10837,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -10906,16 +10918,16 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AS53">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT53">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU53">
         <v>1.2</v>
@@ -11016,7 +11028,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11097,16 +11109,16 @@
         <v>2.05</v>
       </c>
       <c r="AQ54">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AR54">
+        <v>1</v>
+      </c>
+      <c r="AS54">
         <v>1.5</v>
       </c>
-      <c r="AS54">
-        <v>1.63</v>
-      </c>
       <c r="AT54">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AU54">
         <v>1.47</v>
@@ -11288,16 +11300,16 @@
         <v>1.6</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11398,7 +11410,7 @@
         <v>76</v>
       </c>
       <c r="P56" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11479,16 +11491,16 @@
         <v>1.23</v>
       </c>
       <c r="AQ56">
+        <v>1.17</v>
+      </c>
+      <c r="AR56">
         <v>1.43</v>
       </c>
-      <c r="AR56">
-        <v>1.36</v>
-      </c>
       <c r="AS56">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT56">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU56">
         <v>1.48</v>
@@ -11589,7 +11601,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11670,16 +11682,16 @@
         <v>1.37</v>
       </c>
       <c r="AQ57">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="AR57">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT57">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -11780,7 +11792,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -11861,16 +11873,16 @@
         <v>1.8</v>
       </c>
       <c r="AQ58">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AR58">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AS58">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT58">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12052,16 +12064,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT59">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.44</v>
@@ -12243,16 +12255,16 @@
         <v>1.62</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AS60">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AT60">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AU60">
         <v>1.19</v>
@@ -12353,7 +12365,7 @@
         <v>115</v>
       </c>
       <c r="P61" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -12434,16 +12446,16 @@
         <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="AS61">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.71</v>
@@ -12544,7 +12556,7 @@
         <v>116</v>
       </c>
       <c r="P62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12625,16 +12637,16 @@
         <v>2.42</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AS62">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AT62">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU62">
         <v>1.63</v>
@@ -12735,7 +12747,7 @@
         <v>76</v>
       </c>
       <c r="P63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -12816,16 +12828,16 @@
         <v>1.46</v>
       </c>
       <c r="AQ63">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AU63">
         <v>1.47</v>
@@ -12926,7 +12938,7 @@
         <v>117</v>
       </c>
       <c r="P64" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13007,16 +13019,16 @@
         <v>1.29</v>
       </c>
       <c r="AQ64">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AS64">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>1.2</v>
@@ -13198,16 +13210,16 @@
         <v>1.4</v>
       </c>
       <c r="AQ65">
-        <v>1.27</v>
+        <v>2.17</v>
       </c>
       <c r="AR65">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT65">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.29</v>
@@ -13308,7 +13320,7 @@
         <v>117</v>
       </c>
       <c r="P66" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13389,16 +13401,16 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT66">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AU66">
         <v>1.36</v>
@@ -13450,6 +13462,770 @@
       </c>
       <c r="BK66">
         <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5275437</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45135.83333333334</v>
+      </c>
+      <c r="F67">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>119</v>
+      </c>
+      <c r="P67" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="S67">
+        <v>12</v>
+      </c>
+      <c r="T67">
+        <v>1.73</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>7</v>
+      </c>
+      <c r="W67">
+        <v>1.3</v>
+      </c>
+      <c r="X67">
+        <v>3.4</v>
+      </c>
+      <c r="Y67">
+        <v>2.25</v>
+      </c>
+      <c r="Z67">
+        <v>1.57</v>
+      </c>
+      <c r="AA67">
+        <v>4.5</v>
+      </c>
+      <c r="AB67">
+        <v>1.17</v>
+      </c>
+      <c r="AC67">
+        <v>1.16</v>
+      </c>
+      <c r="AD67">
+        <v>5.4</v>
+      </c>
+      <c r="AE67">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF67">
+        <v>1.03</v>
+      </c>
+      <c r="AG67">
+        <v>18</v>
+      </c>
+      <c r="AH67">
+        <v>1.19</v>
+      </c>
+      <c r="AI67">
+        <v>4.2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.53</v>
+      </c>
+      <c r="AK67">
+        <v>2.25</v>
+      </c>
+      <c r="AL67">
+        <v>2.1</v>
+      </c>
+      <c r="AM67">
+        <v>1.67</v>
+      </c>
+      <c r="AN67">
+        <v>1.03</v>
+      </c>
+      <c r="AO67">
+        <v>1.12</v>
+      </c>
+      <c r="AP67">
+        <v>2.95</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>0.63</v>
+      </c>
+      <c r="AS67">
+        <v>1.44</v>
+      </c>
+      <c r="AT67">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU67">
+        <v>1.68</v>
+      </c>
+      <c r="AV67">
+        <v>0.92</v>
+      </c>
+      <c r="AW67">
+        <v>2.6</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>6</v>
+      </c>
+      <c r="BG67">
+        <v>4</v>
+      </c>
+      <c r="BH67">
+        <v>5</v>
+      </c>
+      <c r="BI67">
+        <v>4</v>
+      </c>
+      <c r="BJ67">
+        <v>11</v>
+      </c>
+      <c r="BK67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5275438</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45136.70833333334</v>
+      </c>
+      <c r="F68">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>3.75</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <v>2.88</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>2.5</v>
+      </c>
+      <c r="Y68">
+        <v>3.4</v>
+      </c>
+      <c r="Z68">
+        <v>1.3</v>
+      </c>
+      <c r="AA68">
+        <v>8</v>
+      </c>
+      <c r="AB68">
+        <v>1.06</v>
+      </c>
+      <c r="AC68">
+        <v>2.66</v>
+      </c>
+      <c r="AD68">
+        <v>3.1</v>
+      </c>
+      <c r="AE68">
+        <v>2.22</v>
+      </c>
+      <c r="AF68">
+        <v>1.07</v>
+      </c>
+      <c r="AG68">
+        <v>7.75</v>
+      </c>
+      <c r="AH68">
+        <v>1.37</v>
+      </c>
+      <c r="AI68">
+        <v>2.85</v>
+      </c>
+      <c r="AJ68">
+        <v>2.1</v>
+      </c>
+      <c r="AK68">
+        <v>1.55</v>
+      </c>
+      <c r="AL68">
+        <v>2.1</v>
+      </c>
+      <c r="AM68">
+        <v>1.67</v>
+      </c>
+      <c r="AN68">
+        <v>1.53</v>
+      </c>
+      <c r="AO68">
+        <v>1.25</v>
+      </c>
+      <c r="AP68">
+        <v>1.3</v>
+      </c>
+      <c r="AQ68">
+        <v>1.25</v>
+      </c>
+      <c r="AR68">
+        <v>1.83</v>
+      </c>
+      <c r="AS68">
+        <v>1.11</v>
+      </c>
+      <c r="AT68">
+        <v>2</v>
+      </c>
+      <c r="AU68">
+        <v>1.38</v>
+      </c>
+      <c r="AV68">
+        <v>1.47</v>
+      </c>
+      <c r="AW68">
+        <v>2.85</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>4</v>
+      </c>
+      <c r="BG68">
+        <v>8</v>
+      </c>
+      <c r="BH68">
+        <v>2</v>
+      </c>
+      <c r="BI68">
+        <v>2</v>
+      </c>
+      <c r="BJ68">
+        <v>6</v>
+      </c>
+      <c r="BK68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5275439</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45136.83333333334</v>
+      </c>
+      <c r="F69">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>120</v>
+      </c>
+      <c r="P69" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>3.4</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>3.2</v>
+      </c>
+      <c r="W69">
+        <v>1.5</v>
+      </c>
+      <c r="X69">
+        <v>2.5</v>
+      </c>
+      <c r="Y69">
+        <v>3.25</v>
+      </c>
+      <c r="Z69">
+        <v>1.33</v>
+      </c>
+      <c r="AA69">
+        <v>8</v>
+      </c>
+      <c r="AB69">
+        <v>1.06</v>
+      </c>
+      <c r="AC69">
+        <v>2.25</v>
+      </c>
+      <c r="AD69">
+        <v>3.35</v>
+      </c>
+      <c r="AE69">
+        <v>2.8</v>
+      </c>
+      <c r="AF69">
+        <v>1.03</v>
+      </c>
+      <c r="AG69">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH69">
+        <v>1.32</v>
+      </c>
+      <c r="AI69">
+        <v>3.1</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>1.61</v>
+      </c>
+      <c r="AL69">
+        <v>2</v>
+      </c>
+      <c r="AM69">
+        <v>1.73</v>
+      </c>
+      <c r="AN69">
+        <v>1.42</v>
+      </c>
+      <c r="AO69">
+        <v>1.28</v>
+      </c>
+      <c r="AP69">
+        <v>1.38</v>
+      </c>
+      <c r="AQ69">
+        <v>1.63</v>
+      </c>
+      <c r="AR69">
+        <v>1.5</v>
+      </c>
+      <c r="AS69">
+        <v>1.78</v>
+      </c>
+      <c r="AT69">
+        <v>1.33</v>
+      </c>
+      <c r="AU69">
+        <v>1.66</v>
+      </c>
+      <c r="AV69">
+        <v>1.39</v>
+      </c>
+      <c r="AW69">
+        <v>3.05</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>4</v>
+      </c>
+      <c r="BG69">
+        <v>6</v>
+      </c>
+      <c r="BH69">
+        <v>5</v>
+      </c>
+      <c r="BI69">
+        <v>8</v>
+      </c>
+      <c r="BJ69">
+        <v>9</v>
+      </c>
+      <c r="BK69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5275440</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45137.625</v>
+      </c>
+      <c r="F70">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+      <c r="S70">
+        <v>8</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>3.6</v>
+      </c>
+      <c r="W70">
+        <v>1.5</v>
+      </c>
+      <c r="X70">
+        <v>2.5</v>
+      </c>
+      <c r="Y70">
+        <v>3.25</v>
+      </c>
+      <c r="Z70">
+        <v>1.33</v>
+      </c>
+      <c r="AA70">
+        <v>7.5</v>
+      </c>
+      <c r="AB70">
+        <v>1.07</v>
+      </c>
+      <c r="AC70">
+        <v>2.09</v>
+      </c>
+      <c r="AD70">
+        <v>2.85</v>
+      </c>
+      <c r="AE70">
+        <v>2.77</v>
+      </c>
+      <c r="AF70">
+        <v>1.04</v>
+      </c>
+      <c r="AG70">
+        <v>10</v>
+      </c>
+      <c r="AH70">
+        <v>1.33</v>
+      </c>
+      <c r="AI70">
+        <v>3.07</v>
+      </c>
+      <c r="AJ70">
+        <v>1.98</v>
+      </c>
+      <c r="AK70">
+        <v>1.83</v>
+      </c>
+      <c r="AL70">
+        <v>2</v>
+      </c>
+      <c r="AM70">
+        <v>1.73</v>
+      </c>
+      <c r="AN70">
+        <v>1.4</v>
+      </c>
+      <c r="AO70">
+        <v>1.25</v>
+      </c>
+      <c r="AP70">
+        <v>1.52</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>0.67</v>
+      </c>
+      <c r="AS70">
+        <v>0.89</v>
+      </c>
+      <c r="AT70">
+        <v>0.9</v>
+      </c>
+      <c r="AU70">
+        <v>1.41</v>
+      </c>
+      <c r="AV70">
+        <v>1.33</v>
+      </c>
+      <c r="AW70">
+        <v>2.74</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>1.47</v>
+      </c>
+      <c r="BB70">
+        <v>1.9</v>
+      </c>
+      <c r="BC70">
+        <v>2.48</v>
+      </c>
+      <c r="BD70">
+        <v>3.45</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>3</v>
+      </c>
+      <c r="BG70">
+        <v>6</v>
+      </c>
+      <c r="BH70">
+        <v>3</v>
+      </c>
+      <c r="BI70">
+        <v>6</v>
+      </c>
+      <c r="BJ70">
+        <v>6</v>
+      </c>
+      <c r="BK70">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
